--- a/Packages/cn.etetet.wow/Luban/Config/Base/__enums__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE7A62B-BD30-1E4D-AD01-590ED501139B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1BE4D-80F7-DD45-8796-412127538FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1700" windowWidth="32980" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="1700" windowWidth="32980" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EClassType" sheetId="2" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>职业枚举</t>
   </si>
   <si>
-    <t>EClassType</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>战士</t>
   </si>
   <si>
-    <t>UnitType</t>
-  </si>
-  <si>
     <t>Player</t>
   </si>
   <si>
@@ -190,10 +184,6 @@
   </si>
   <si>
     <t>宠物</t>
-  </si>
-  <si>
-    <t>CopyType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Normal</t>
@@ -225,6 +215,18 @@
   </si>
   <si>
     <t>Virtual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET.UnitType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET.EClassType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET.CopyType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +604,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
@@ -710,14 +712,14 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -725,10 +727,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
         <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -736,10 +738,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
         <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -747,10 +749,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
         <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
       </c>
       <c r="J8">
         <v>3</v>
@@ -758,10 +760,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
         <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -769,10 +771,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
         <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -780,10 +782,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
         <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -791,10 +793,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
         <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>36</v>
       </c>
       <c r="J12">
         <v>7</v>
@@ -802,10 +804,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
         <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
       </c>
       <c r="J13">
         <v>8</v>
@@ -813,10 +815,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
         <v>39</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
       </c>
       <c r="J14">
         <v>9</v>
@@ -824,10 +826,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
         <v>41</v>
-      </c>
-      <c r="I15" t="s">
-        <v>42</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -835,10 +837,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" t="s">
         <v>43</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
       </c>
       <c r="J16">
         <v>11</v>
@@ -846,10 +848,10 @@
     </row>
     <row r="17" spans="8:10">
       <c r="H17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" t="s">
         <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
       </c>
       <c r="J17">
         <v>12</v>
@@ -868,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
@@ -969,17 +971,17 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" t="s">
-        <v>47</v>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -987,10 +989,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="H5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -998,10 +1000,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="H6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -1009,10 +1011,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="H7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>8</v>
@@ -1020,10 +1022,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="H8" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J8">
         <v>16</v>
@@ -1042,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900945C2-FEC2-AB48-8B1A-241796E88020}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
@@ -1144,16 +1146,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1161,10 +1163,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="H5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -1172,10 +1174,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="H6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="J6">
         <v>3</v>

--- a/Packages/cn.etetet.wow/Luban/Config/Base/__enums__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1BE4D-80F7-DD45-8796-412127538FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99B2762-60A7-9241-9224-90EDA1695709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1700" windowWidth="32980" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1780" windowWidth="29220" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EClassType" sheetId="2" r:id="rId1"/>

--- a/Packages/cn.etetet.wow/Luban/Config/Base/__enums__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__enums__.xlsx
@@ -8,21 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99B2762-60A7-9241-9224-90EDA1695709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71763DCD-D661-EF4A-93B4-188B2D6637CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1780" windowWidth="29220" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1780" windowWidth="29220" windowHeight="16540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EClassType" sheetId="2" r:id="rId1"/>
     <sheet name="UnitType" sheetId="3" r:id="rId2"/>
     <sheet name="CopyType" sheetId="4" r:id="rId3"/>
+    <sheet name="TransferType" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -227,6 +241,26 @@
   </si>
   <si>
     <t>ET.CopyType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET.TransferType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通传送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分线传送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录传送</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1044,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900945C2-FEC2-AB48-8B1A-241796E88020}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
@@ -1190,4 +1224,156 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DE88B7-4E3F-604A-B9E0-B1DADCE52D1B}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="99" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="H5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Packages/cn.etetet.wow/Luban/Config/Base/__enums__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__enums__.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71763DCD-D661-EF4A-93B4-188B2D6637CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA859D5A-392E-8540-A998-562FEE5EF2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1780" windowWidth="29220" windowHeight="16540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1780" windowWidth="29220" windowHeight="16540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EClassType" sheetId="2" r:id="rId1"/>
     <sheet name="UnitType" sheetId="3" r:id="rId2"/>
     <sheet name="CopyType" sheetId="4" r:id="rId3"/>
     <sheet name="TransferType" sheetId="5" r:id="rId4"/>
+    <sheet name="QuestObjectiveType" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -261,6 +262,26 @@
   </si>
   <si>
     <t>登录传送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ET.QuestObjectiveType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillMonster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collectltem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnterMap</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -341,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,6 +380,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1230,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DE88B7-4E3F-604A-B9E0-B1DADCE52D1B}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1376,4 +1400,158 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C634E50F-497D-B641-9B34-9BA56F9E9CD8}">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="99" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="H5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Packages/cn.etetet.wow/Luban/Config/Base/__enums__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__enums__.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA859D5A-392E-8540-A998-562FEE5EF2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F05C8BE-2925-7742-93F8-F055DB19865F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1780" windowWidth="29220" windowHeight="16540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1780" windowWidth="29220" windowHeight="16540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EClassType" sheetId="2" r:id="rId1"/>
     <sheet name="UnitType" sheetId="3" r:id="rId2"/>
     <sheet name="CopyType" sheetId="4" r:id="rId3"/>
     <sheet name="TransferType" sheetId="5" r:id="rId4"/>
-    <sheet name="QuestObjectiveType" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -262,26 +261,6 @@
   </si>
   <si>
     <t>登录传送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ET.QuestObjectiveType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KillMonster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collectltem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnterMap</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -380,9 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1254,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DE88B7-4E3F-604A-B9E0-B1DADCE52D1B}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1400,158 +1376,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C634E50F-497D-B641-9B34-9BA56F9E9CD8}">
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" customWidth="1"/>
-    <col min="9" max="12" width="16.83203125" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="H7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Packages/cn.etetet.wow/Luban/Config/Base/__enums__.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Base/__enums__.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F05C8BE-2925-7742-93F8-F055DB19865F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780CF927-5F46-D141-B547-FDC1D4563233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1780" windowWidth="29220" windowHeight="16540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="1780" windowWidth="29220" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EClassType" sheetId="2" r:id="rId1"/>
     <sheet name="UnitType" sheetId="3" r:id="rId2"/>
-    <sheet name="CopyType" sheetId="4" r:id="rId3"/>
-    <sheet name="TransferType" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -198,30 +196,6 @@
   </si>
   <si>
     <t>宠物</t>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通地图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>虚拟单位</t>
@@ -237,30 +211,6 @@
   </si>
   <si>
     <t>ET.EClassType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ET.CopyType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ET.TransferType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通传送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分线传送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录传送</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +697,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
@@ -904,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1006,7 +956,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1056,317 +1006,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="H8" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900945C2-FEC2-AB48-8B1A-241796E88020}">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" customWidth="1"/>
-    <col min="9" max="12" width="16.83203125" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DE88B7-4E3F-604A-B9E0-B1DADCE52D1B}">
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" customWidth="1"/>
-    <col min="9" max="12" width="16.83203125" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
